--- a/6/1/1/3/3/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/3/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="188">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O175"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9048,10 +9051,10 @@
         <v>8224</v>
       </c>
       <c r="I173">
-        <v>4177</v>
+        <v>4236</v>
       </c>
       <c r="J173">
-        <v>2641</v>
+        <v>2582</v>
       </c>
       <c r="K173">
         <v>661</v>
@@ -9092,13 +9095,13 @@
         <v>10256</v>
       </c>
       <c r="H174">
-        <v>4693</v>
+        <v>4878</v>
       </c>
       <c r="I174">
-        <v>3939</v>
+        <v>4009</v>
       </c>
       <c r="J174">
-        <v>2449</v>
+        <v>2194</v>
       </c>
       <c r="K174">
         <v>893</v>
@@ -9139,16 +9142,16 @@
         <v>4073</v>
       </c>
       <c r="H175">
-        <v>3033</v>
+        <v>3575</v>
       </c>
       <c r="I175">
-        <v>2781</v>
+        <v>2288</v>
       </c>
       <c r="J175">
-        <v>2081</v>
+        <v>2041</v>
       </c>
       <c r="K175">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="L175">
         <v>3</v>
@@ -9161,6 +9164,53 @@
       </c>
       <c r="O175">
         <v>1923</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176">
+        <v>16002</v>
+      </c>
+      <c r="C176">
+        <v>12571</v>
+      </c>
+      <c r="D176">
+        <v>6126</v>
+      </c>
+      <c r="E176">
+        <v>6445</v>
+      </c>
+      <c r="F176">
+        <v>1482</v>
+      </c>
+      <c r="G176">
+        <v>3593</v>
+      </c>
+      <c r="H176">
+        <v>2122</v>
+      </c>
+      <c r="I176">
+        <v>2566</v>
+      </c>
+      <c r="J176">
+        <v>1549</v>
+      </c>
+      <c r="K176">
+        <v>1249</v>
+      </c>
+      <c r="L176">
+        <v>10</v>
+      </c>
+      <c r="M176">
+        <v>3431</v>
+      </c>
+      <c r="N176">
+        <v>1763</v>
+      </c>
+      <c r="O176">
+        <v>1668</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/3/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/3/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
   <si>
     <t>Serie</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O176"/>
+  <dimension ref="A1:O177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9098,10 +9101,10 @@
         <v>4878</v>
       </c>
       <c r="I174">
-        <v>4009</v>
+        <v>4089</v>
       </c>
       <c r="J174">
-        <v>2194</v>
+        <v>2114</v>
       </c>
       <c r="K174">
         <v>893</v>
@@ -9142,19 +9145,19 @@
         <v>4073</v>
       </c>
       <c r="H175">
-        <v>3575</v>
+        <v>3709</v>
       </c>
       <c r="I175">
-        <v>2288</v>
+        <v>2218</v>
       </c>
       <c r="J175">
-        <v>2041</v>
+        <v>1989</v>
       </c>
       <c r="K175">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="L175">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M175">
         <v>3692</v>
@@ -9186,19 +9189,19 @@
         <v>1482</v>
       </c>
       <c r="G176">
-        <v>3593</v>
+        <v>3668</v>
       </c>
       <c r="H176">
-        <v>2122</v>
+        <v>2372</v>
       </c>
       <c r="I176">
-        <v>2566</v>
+        <v>2373</v>
       </c>
       <c r="J176">
-        <v>1549</v>
+        <v>1439</v>
       </c>
       <c r="K176">
-        <v>1249</v>
+        <v>1227</v>
       </c>
       <c r="L176">
         <v>10</v>
@@ -9211,6 +9214,53 @@
       </c>
       <c r="O176">
         <v>1668</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177">
+        <v>18300</v>
+      </c>
+      <c r="C177">
+        <v>15822</v>
+      </c>
+      <c r="D177">
+        <v>7193</v>
+      </c>
+      <c r="E177">
+        <v>8629</v>
+      </c>
+      <c r="F177">
+        <v>1443</v>
+      </c>
+      <c r="G177">
+        <v>4728</v>
+      </c>
+      <c r="H177">
+        <v>3724</v>
+      </c>
+      <c r="I177">
+        <v>2900</v>
+      </c>
+      <c r="J177">
+        <v>2369</v>
+      </c>
+      <c r="K177">
+        <v>501</v>
+      </c>
+      <c r="L177">
+        <v>157</v>
+      </c>
+      <c r="M177">
+        <v>2477</v>
+      </c>
+      <c r="N177">
+        <v>1265</v>
+      </c>
+      <c r="O177">
+        <v>1212</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/3/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/3/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
   <si>
     <t>Serie</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:O178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9192,16 +9195,16 @@
         <v>3668</v>
       </c>
       <c r="H176">
-        <v>2372</v>
+        <v>2712</v>
       </c>
       <c r="I176">
-        <v>2373</v>
+        <v>2382</v>
       </c>
       <c r="J176">
-        <v>1439</v>
+        <v>1389</v>
       </c>
       <c r="K176">
-        <v>1227</v>
+        <v>928</v>
       </c>
       <c r="L176">
         <v>10</v>
@@ -9239,16 +9242,16 @@
         <v>4728</v>
       </c>
       <c r="H177">
-        <v>3724</v>
+        <v>4108</v>
       </c>
       <c r="I177">
-        <v>2900</v>
+        <v>2610</v>
       </c>
       <c r="J177">
-        <v>2369</v>
+        <v>2284</v>
       </c>
       <c r="K177">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="L177">
         <v>157</v>
@@ -9261,6 +9264,53 @@
       </c>
       <c r="O177">
         <v>1212</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178">
+        <v>16502</v>
+      </c>
+      <c r="C178">
+        <v>13227</v>
+      </c>
+      <c r="D178">
+        <v>6466</v>
+      </c>
+      <c r="E178">
+        <v>6760</v>
+      </c>
+      <c r="F178">
+        <v>1946</v>
+      </c>
+      <c r="G178">
+        <v>4467</v>
+      </c>
+      <c r="H178">
+        <v>2734</v>
+      </c>
+      <c r="I178">
+        <v>1725</v>
+      </c>
+      <c r="J178">
+        <v>1526</v>
+      </c>
+      <c r="K178">
+        <v>662</v>
+      </c>
+      <c r="L178">
+        <v>168</v>
+      </c>
+      <c r="M178">
+        <v>3276</v>
+      </c>
+      <c r="N178">
+        <v>1777</v>
+      </c>
+      <c r="O178">
+        <v>1499</v>
       </c>
     </row>
   </sheetData>
